--- a/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,74</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-27,2%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-15,69%</t>
+          <t>-9,92%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-22,87%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,38%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 8,76</t>
+          <t>-6,56; 13,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 6,41</t>
+          <t>-9,94; 5,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -0,36</t>
+          <t>-13,79; 1,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 2,85</t>
+          <t>-11,36; 13,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,03; 56,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 39,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-48,6; -0,83</t>
+          <t>-29,11; 93,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,0; 12,05</t>
+          <t>-37,06; 28,99</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-45,2; 6,44</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-40,18; 90,22</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,95%</t>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 8,53</t>
+          <t>-4,08; 11,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 6,34</t>
+          <t>-5,23; 7,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 5,37</t>
+          <t>-6,35; 4,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 4,03</t>
+          <t>-2,03; 10,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 52,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 35,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 32,57</t>
+          <t>-17,92; 85,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 19,19</t>
+          <t>-21,72; 43,96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-25,98; 30,0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-12,06; 86,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,72%</t>
+          <t>18,7%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>21,61%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-14,55%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 7,79</t>
+          <t>-6,55; 8,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 7,13</t>
+          <t>-3,27; 8,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 8,44</t>
+          <t>-1,54; 8,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 6,28</t>
+          <t>-8,92; 4,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 57,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 51,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 62,77</t>
+          <t>-31,91; 64,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 26,12</t>
+          <t>-16,72; 63,02</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 60,77</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-39,94; 32,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,18%</t>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,21%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 5,83</t>
+          <t>-3,33; 7,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 4,65</t>
+          <t>-5,64; 5,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 1,84</t>
+          <t>-6,21; 10,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 35,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 27,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 16,97</t>
+          <t>-16,49; 51,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 7,65</t>
+          <t>-27,52; 40,23</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-24,54; 59,35</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 6,31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 3,9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 3,27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 4,9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 39,86</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,52; 22,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-16,25; 19,27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; 29,36</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>18,14%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-9,92%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-22,87%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-1,38%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>3.28284855435339</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.468827661795314</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.289483818008593</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.822280884724591</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.1798776894068115</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1080896408708246</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.2501700002456764</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.03657101462783319</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,56; 13,07</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,94; 5,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,79; 1,62</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-11,36; 13,5</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-29,11; 93,98</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-37,06; 28,99</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-45,2; 6,44</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-40,18; 90,22</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.641486015575282</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.28422735018492</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.04138580112042</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-11.86598917558512</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.2941030648294393</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3805043771873511</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4761442254642149</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4214584519001693</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.64033403131848</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.070664531996795</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.8316096425557242</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.58976997422825</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.935150458609327</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2861408672814325</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.04363921480183922</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.8265667745417471</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,99</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21,96%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>28,14%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 11,64</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 7,13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 4,96</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 10,43</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-17,92; 85,99</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-21,72; 43,96</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-25,98; 30,0</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-12,06; 86,63</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>3.147127454291057</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.565750474180679</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2672975343610051</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.732827754351144</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.166563190018682</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.02674301496121472</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.01309308838745324</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3202510284876715</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,7</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,69%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>18,7%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>21,61%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-14,55%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.476964090994828</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.984384809363253</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.339329683290417</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.595858835504072</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.1934170529445229</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2396460361057193</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2586261041645904</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.09644371343139374</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 8,56</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 8,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 8,11</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,92; 4,42</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-31,91; 64,3</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-16,72; 63,02</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-8,81; 60,77</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-39,94; 32,4</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.9993857986725</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.850082985104801</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.849953412245058</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.72376836579405</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.7873785020869484</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3914185301031788</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.2893454453895278</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.9191969794679911</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>13,25%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>9,21%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.7531023777058971</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.037688991887783</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.984225351416547</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.741390527254706</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.04183969755613385</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1821944185999728</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1818764785443349</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1471448121291795</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 7,56</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,64; 5,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 10,04</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-16,49; 51,33</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-27,52; 40,23</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-24,54; 59,35</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.973360727157033</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.24137177350535</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.108773664048972</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.892829324121571</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.3807504263549358</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1701650570643808</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1148169612978358</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.3878284813007055</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.919676578315958</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.377762310193484</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.723781126624435</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.361960443788583</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.6107139811900627</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6245476862934283</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.5696789033653958</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.3329813073080373</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>16,17%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4,79%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,61%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>6,33%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 6,31</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 3,9</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 3,27</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 4,9</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 39,86</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-11,52; 22,03</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-16,25; 19,27</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-14,18; 29,36</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.332777096530489</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.7033243078506057</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.5782951977557987</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.209038728522469</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.1263569965699304</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.03509123563297886</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.02869347605777699</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.06871431233465498</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.29800424712731</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.490793210135041</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.171539750320978</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.026176508732635</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.1538573400089599</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1539302801320223</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1875617578436026</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1557302174311866</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.907829193295013</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.457630235929497</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.86391185534076</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.476801582135355</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.4505076295195384</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2599865627247418</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1662911501090409</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3535538528687085</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
